--- a/forecast_summary_B0C1M2BDNR.xlsx
+++ b/forecast_summary_B0C1M2BDNR.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>2.049777831516606</v>
       </c>
       <c r="D2" t="n">
-        <v>6.520632400933544</v>
+        <v>6.529512406702209</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-11.52310480932936</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.192404216383042</v>
+        <v>-7.241534197629609</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-48.97096767872204</v>
       </c>
       <c r="D4" t="n">
-        <v>-44.72691784095643</v>
+        <v>-44.42844788103313</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-110.7337659703032</v>
       </c>
       <c r="D5" t="n">
-        <v>-106.5105253085672</v>
+        <v>-106.4397864744789</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-174.2568309828299</v>
       </c>
       <c r="D6" t="n">
-        <v>-169.7357106086456</v>
+        <v>-170.0852735961598</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-204.6445209506645</v>
       </c>
       <c r="D7" t="n">
-        <v>-200.5417250182427</v>
+        <v>-200.2216796066378</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-181.4835301837795</v>
       </c>
       <c r="D8" t="n">
-        <v>-177.3544177047991</v>
+        <v>-177.1000709644943</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-117.3217456560917</v>
       </c>
       <c r="D9" t="n">
-        <v>-112.8902705908598</v>
+        <v>-112.7644281851361</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-48.66056082922685</v>
       </c>
       <c r="D10" t="n">
-        <v>-44.45918986525563</v>
+        <v>-44.43462891754348</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-6.992977448774832</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.82023910197961</v>
+        <v>-2.87148913764868</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>2.845196568703136</v>
       </c>
       <c r="D12" t="n">
-        <v>7.151177880328933</v>
+        <v>7.359472216996505</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-1.611615322616027</v>
       </c>
       <c r="D13" t="n">
-        <v>2.989583075274898</v>
+        <v>2.505077217952045</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-2.28196668549874</v>
       </c>
       <c r="D14" t="n">
-        <v>1.866451585376542</v>
+        <v>2.052002757046781</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>4.096422279902185</v>
       </c>
       <c r="D15" t="n">
-        <v>8.570032559625615</v>
+        <v>8.196750538500261</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>9.86133838104235</v>
       </c>
       <c r="D16" t="n">
-        <v>14.51987511392951</v>
+        <v>13.96223806111255</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>9.853448486027432</v>
       </c>
       <c r="D17" t="n">
-        <v>14.24360998043265</v>
+        <v>14.31609389226366</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>7.002001413165878</v>
       </c>
       <c r="D18" t="n">
-        <v>11.47149262296669</v>
+        <v>11.47243893591924</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>5.961705347909933</v>
       </c>
       <c r="D19" t="n">
-        <v>10.13963910394574</v>
+        <v>10.43305647596653</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>5.985456151174253</v>
       </c>
       <c r="D20" t="n">
-        <v>10.03603930437719</v>
+        <v>10.43666013276635</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>2.93509582165133</v>
       </c>
       <c r="D21" t="n">
-        <v>7.351836439417658</v>
+        <v>7.781324416135882</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Q670M D3H</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
